--- a/biology/Histoire de la zoologie et de la botanique/August_Emil_Holmgren/August_Emil_Holmgren.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Emil_Holmgren/August_Emil_Holmgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Emil Holmgren (1829–1888) est un entomologiste suédois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était spécialisé dans l'étude des hyménoptères et en particulier des Ichneumonidae.
 Il fut professeur à la Forstakademie à Stockholm.
@@ -545,13 +559,86 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1855
-Holmgren A.E., 1855. Försök till uppställning och beskrifning af de i Sverige funna Tryphonider.
-1857
-Holmgren A.E., 1857. Häft 12. Hymenoptera. Virgin, CA.
-Holmgren A.E., 1857. Ophionslägtet Anomalon. Öfversigt at Kongliga Vetenskaps. Akademiens …
-1869
-Holmgren A.E., 1869. Bidrag till Kännedomen om Beeren Eilands och Spetsbergens insekt-fauna. Kongliga Svenska Vetenskaps-Akademiens Handlingar, 8(5), 3-55.</t>
+          <t>1855</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Holmgren A.E., 1855. Försök till uppställning och beskrifning af de i Sverige funna Tryphonider.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>August_Emil_Holmgren</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/August_Emil_Holmgren</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Holmgren A.E., 1857. Häft 12. Hymenoptera. Virgin, CA.
+Holmgren A.E., 1857. Ophionslägtet Anomalon. Öfversigt at Kongliga Vetenskaps. Akademiens …</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>August_Emil_Holmgren</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/August_Emil_Holmgren</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Holmgren A.E., 1869. Bidrag till Kännedomen om Beeren Eilands och Spetsbergens insekt-fauna. Kongliga Svenska Vetenskaps-Akademiens Handlingar, 8(5), 3-55.</t>
         </is>
       </c>
     </row>
